--- a/Archivos originales usados/PIB por país/Colombia/Empalmes.xlsx
+++ b/Archivos originales usados/PIB por país/Colombia/Empalmes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/Archivos originales usados/PIB por país/Colombia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BD53EC-20C2-674E-A003-F09720D9944D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7332E239-5924-9343-90AB-5A6595AB4D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{06A4540C-9321-6C41-8BCF-D52CC89A202A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="20">
   <si>
     <t>Año</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Empalmada Base 2015 para usar</t>
+  </si>
+  <si>
+    <t>La caída es el 2Tr 2020 (Covid). La conversión a año base 2015 está bien.</t>
   </si>
 </sst>
 </file>
@@ -182,6 +185,1287 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PBI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Colombia!$A$62:$A$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="112"/>
+                <c:pt idx="0">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Colombia!$P$62:$P$173</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="112"/>
+                <c:pt idx="0">
+                  <c:v>91853.55447085503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93441.381673478609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95306.008922121007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95591.264229759894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97538.547008606969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98601.742678644892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98986.29383163419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100614.65787775051</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100247.6364748843</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100667.71436294967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101016.65997016874</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101271.43805649535</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100886.94319685904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104348.12311783947</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105151.5812571518</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106101.441519602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>106626.46710565862</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>106714.03704557988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>104175.76412963496</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>101463.04937142465</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100113.41060399963</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99242.428587768052</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100719.63935175362</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100639.00475292151</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102614.07956014293</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>102676.91501347734</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>103891.99893633919</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>104367.4805005199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>105932.63551486438</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>106110.86447715164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>107077.60777814816</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>107573.13105674474</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105699.92624622231</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>110324.02352297521</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>110366.17307806245</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>110264.74910556721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>112963.0930747643</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>112294.93997870822</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>115290.13969803382</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>117098.16976417747</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>118654.59581135305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>119352.39231692195</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>121245.91913517354</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>126109.94385055143</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>126433.056940065</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>128397.709105708</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>128914.266111647</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>131107.96798688601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>133702.280493884</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>136171.61222798299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>138785.26076818199</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>140775.84650995099</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>143366.45146851501</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>144998.940054315</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>148206.53499617401</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>149885.073480997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>150322.010367807</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>151594.83320208499</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>153290.18308886499</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>150505.97334124299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>151162.22218981801</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>152680.97016946299</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>153785.04444418999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>154987.76319652799</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>157086.95767673</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>158978.74206608901</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>160286.71019768601</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>163798.59005949699</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>166805.31567611301</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>170097.689480131</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>172972.04492258001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>174752.94992117601</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>176006.760757877</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>178170.06002551099</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>177622.773215316</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>179615.40600129601</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>182409.74645033901</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>186928.09060583901</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>187977.56125433699</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>190623.60168948601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>192866.134319373</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>194693.872289252</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>195757.62842685499</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>198271.364964521</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>199543.735374168</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>200591.24705735099</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>202668.19079341399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>201888.826775066</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>203686.276273253</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>204853.33379096701</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>205861.83459934199</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>207087.55533643899</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>206433.025465502</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>208023.038035948</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>208546.405363428</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>209653.531135122</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>211263.088944869</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>212331.96946553999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>214434.301911135</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>215978.63967845601</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>217486.047995442</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>219740.344164568</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>220966.467720093</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>223031.14011989601</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>218280.464933173</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>183528.87130635101</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>201876.78923336999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>215427.87452710699</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>222785.48164114499</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>215647.33799069599</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>228725.14327602799</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>238481.446419591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FA9-AA40-98FF-4C6EC8A54482}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="715625727"/>
+        <c:axId val="715614495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="715625727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715614495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="715614495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715625727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F0380E-4A16-7723-4A16-D25B75497757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,7 +1765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4361D1-C724-1546-842B-D2FB25B3B64A}">
-  <dimension ref="A1:P173"/>
+  <dimension ref="A1:S173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -966,7 +2250,7 @@
         <v>65267780</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" ref="G61:G83" si="0">+(G63*F62)/F63</f>
+        <f t="shared" ref="G62:G83" si="0">+(G63*F62)/F63</f>
         <v>91853.55447085503</v>
       </c>
       <c r="H62" s="3"/>
@@ -1038,7 +2322,7 @@
         <v>95306.008922121007</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -1068,7 +2352,7 @@
         <v>95591.264229759894</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1995</v>
       </c>
@@ -1101,7 +2385,7 @@
         <v>97538.547008606969</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +2415,7 @@
         <v>98601.742678644892</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +2445,7 @@
         <v>98986.29383163419</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>6</v>
       </c>
@@ -1191,7 +2475,7 @@
         <v>100614.65787775051</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1996</v>
       </c>
@@ -1224,7 +2508,7 @@
         <v>100247.6364748843</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -1254,7 +2538,7 @@
         <v>100667.71436294967</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>5</v>
       </c>
@@ -1283,8 +2567,11 @@
       <c r="P72" s="11">
         <v>101016.65997016874</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>6</v>
       </c>
@@ -1314,7 +2601,7 @@
         <v>101271.43805649535</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1997</v>
       </c>
@@ -1347,7 +2634,7 @@
         <v>100886.94319685904</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>4</v>
       </c>
@@ -1377,7 +2664,7 @@
         <v>104348.12311783947</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>5</v>
       </c>
@@ -1407,7 +2694,7 @@
         <v>105151.5812571518</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +2724,7 @@
         <v>106101.441519602</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1998</v>
       </c>
@@ -1470,7 +2757,7 @@
         <v>106626.46710565862</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +2787,7 @@
         <v>106714.03704557988</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>5</v>
       </c>
@@ -1671,7 +2958,7 @@
         <v>71510400</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" ref="G84:G115" si="2">+(L86*F85)/F86</f>
+        <f t="shared" ref="G85:G115" si="2">+(L86*F85)/F86</f>
         <v>100639.00475292151</v>
       </c>
       <c r="H85" s="3"/>
@@ -3877,5 +5164,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>